--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.83862766666667</v>
+        <v>55.24568033333333</v>
       </c>
       <c r="H2">
-        <v>83.515883</v>
+        <v>165.737041</v>
       </c>
       <c r="I2">
-        <v>0.04355088691831899</v>
+        <v>0.1323077138519401</v>
       </c>
       <c r="J2">
-        <v>0.04355088691831899</v>
+        <v>0.1323077138519401</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N2">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P2">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q2">
-        <v>2639.097754844478</v>
+        <v>9770.480172597885</v>
       </c>
       <c r="R2">
-        <v>23751.8797936003</v>
+        <v>87934.32155338097</v>
       </c>
       <c r="S2">
-        <v>0.007325100531560386</v>
+        <v>0.03532233189536142</v>
       </c>
       <c r="T2">
-        <v>0.007325100531560388</v>
+        <v>0.03532233189536142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.83862766666667</v>
+        <v>55.24568033333333</v>
       </c>
       <c r="H3">
-        <v>83.515883</v>
+        <v>165.737041</v>
       </c>
       <c r="I3">
-        <v>0.04355088691831899</v>
+        <v>0.1323077138519401</v>
       </c>
       <c r="J3">
-        <v>0.04355088691831899</v>
+        <v>0.1323077138519401</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>436.924088</v>
       </c>
       <c r="O3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P3">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q3">
-        <v>4054.4556681433</v>
+        <v>8046.056165193733</v>
       </c>
       <c r="R3">
-        <v>36490.10101328971</v>
+        <v>72414.50548674361</v>
       </c>
       <c r="S3">
-        <v>0.01125357911255345</v>
+        <v>0.02908817799075725</v>
       </c>
       <c r="T3">
-        <v>0.01125357911255345</v>
+        <v>0.02908817799075725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.83862766666667</v>
+        <v>55.24568033333333</v>
       </c>
       <c r="H4">
-        <v>83.515883</v>
+        <v>165.737041</v>
       </c>
       <c r="I4">
-        <v>0.04355088691831899</v>
+        <v>0.1323077138519401</v>
       </c>
       <c r="J4">
-        <v>0.04355088691831899</v>
+        <v>0.1323077138519401</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N4">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P4">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q4">
-        <v>2025.983150469589</v>
+        <v>4642.024551185438</v>
       </c>
       <c r="R4">
-        <v>18233.84835422629</v>
+        <v>41778.22096066894</v>
       </c>
       <c r="S4">
-        <v>0.005623334802659375</v>
+        <v>0.01678189085560476</v>
       </c>
       <c r="T4">
-        <v>0.005623334802659375</v>
+        <v>0.01678189085560476</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.83862766666667</v>
+        <v>55.24568033333333</v>
       </c>
       <c r="H5">
-        <v>83.515883</v>
+        <v>165.737041</v>
       </c>
       <c r="I5">
-        <v>0.04355088691831899</v>
+        <v>0.1323077138519401</v>
       </c>
       <c r="J5">
-        <v>0.04355088691831899</v>
+        <v>0.1323077138519401</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N5">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P5">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q5">
-        <v>3224.71225854467</v>
+        <v>4691.947991582046</v>
       </c>
       <c r="R5">
-        <v>29022.41032690203</v>
+        <v>42227.53192423841</v>
       </c>
       <c r="S5">
-        <v>0.008950536764253685</v>
+        <v>0.01696237454728585</v>
       </c>
       <c r="T5">
-        <v>0.008950536764253687</v>
+        <v>0.01696237454728585</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.83862766666667</v>
+        <v>55.24568033333333</v>
       </c>
       <c r="H6">
-        <v>83.515883</v>
+        <v>165.737041</v>
       </c>
       <c r="I6">
-        <v>0.04355088691831899</v>
+        <v>0.1323077138519401</v>
       </c>
       <c r="J6">
-        <v>0.04355088691831899</v>
+        <v>0.1323077138519401</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N6">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P6">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q6">
-        <v>1619.843054436779</v>
+        <v>3534.122724084768</v>
       </c>
       <c r="R6">
-        <v>14578.58748993101</v>
+        <v>31807.10451676291</v>
       </c>
       <c r="S6">
-        <v>0.004496049150630455</v>
+        <v>0.01277659374092653</v>
       </c>
       <c r="T6">
-        <v>0.004496049150630455</v>
+        <v>0.01277659374092653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.83862766666667</v>
+        <v>55.24568033333333</v>
       </c>
       <c r="H7">
-        <v>83.515883</v>
+        <v>165.737041</v>
       </c>
       <c r="I7">
-        <v>0.04355088691831899</v>
+        <v>0.1323077138519401</v>
       </c>
       <c r="J7">
-        <v>0.04355088691831899</v>
+        <v>0.1323077138519401</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N7">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P7">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q7">
-        <v>2126.484289604192</v>
+        <v>5912.892553773762</v>
       </c>
       <c r="R7">
-        <v>19138.35860643773</v>
+        <v>53216.03298396387</v>
       </c>
       <c r="S7">
-        <v>0.005902286556661642</v>
+        <v>0.02137634482200425</v>
       </c>
       <c r="T7">
-        <v>0.005902286556661643</v>
+        <v>0.02137634482200425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>245.091805</v>
       </c>
       <c r="I8">
-        <v>0.1278076109685829</v>
+        <v>0.1956565424828327</v>
       </c>
       <c r="J8">
-        <v>0.1278076109685829</v>
+        <v>0.1956565424828327</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N8">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P8">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q8">
-        <v>7744.888865107016</v>
+        <v>14448.57834295912</v>
       </c>
       <c r="R8">
-        <v>69703.99978596315</v>
+        <v>130037.205086632</v>
       </c>
       <c r="S8">
-        <v>0.02149677458462116</v>
+        <v>0.0522346364385931</v>
       </c>
       <c r="T8">
-        <v>0.02149677458462116</v>
+        <v>0.05223463643859311</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>245.091805</v>
       </c>
       <c r="I9">
-        <v>0.1278076109685829</v>
+        <v>0.1956565424828327</v>
       </c>
       <c r="J9">
-        <v>0.1278076109685829</v>
+        <v>0.1956565424828327</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>436.924088</v>
       </c>
       <c r="O9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P9">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q9">
         <v>11898.50148621098</v>
@@ -1013,10 +1013,10 @@
         <v>107086.5133758988</v>
       </c>
       <c r="S9">
-        <v>0.03302557451743666</v>
+        <v>0.04301557458067546</v>
       </c>
       <c r="T9">
-        <v>0.03302557451743667</v>
+        <v>0.04301557458067547</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>245.091805</v>
       </c>
       <c r="I10">
-        <v>0.1278076109685829</v>
+        <v>0.1956565424828327</v>
       </c>
       <c r="J10">
-        <v>0.1278076109685829</v>
+        <v>0.1956565424828327</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N10">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P10">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q10">
-        <v>5945.598003773462</v>
+        <v>6864.622230732078</v>
       </c>
       <c r="R10">
-        <v>53510.38203396116</v>
+        <v>61781.6000765887</v>
       </c>
       <c r="S10">
-        <v>0.01650264868663491</v>
+        <v>0.02481704690934579</v>
       </c>
       <c r="T10">
-        <v>0.01650264868663491</v>
+        <v>0.02481704690934579</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>245.091805</v>
       </c>
       <c r="I11">
-        <v>0.1278076109685829</v>
+        <v>0.1956565424828327</v>
       </c>
       <c r="J11">
-        <v>0.1278076109685829</v>
+        <v>0.1956565424828327</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N11">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P11">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q11">
-        <v>9463.475924122597</v>
+        <v>6938.448974861138</v>
       </c>
       <c r="R11">
-        <v>85171.28331710337</v>
+        <v>62446.04077375024</v>
       </c>
       <c r="S11">
-        <v>0.02626689837272983</v>
+        <v>0.02508394604969656</v>
       </c>
       <c r="T11">
-        <v>0.02626689837272983</v>
+        <v>0.02508394604969656</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>245.091805</v>
       </c>
       <c r="I12">
-        <v>0.1278076109685829</v>
+        <v>0.1956565424828327</v>
       </c>
       <c r="J12">
-        <v>0.1278076109685829</v>
+        <v>0.1956565424828327</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N12">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P12">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q12">
-        <v>4753.709639023075</v>
+        <v>5226.257886053683</v>
       </c>
       <c r="R12">
-        <v>42783.38675120768</v>
+        <v>47036.32097448315</v>
       </c>
       <c r="S12">
-        <v>0.01319443394613615</v>
+        <v>0.01889401670755897</v>
       </c>
       <c r="T12">
-        <v>0.01319443394613615</v>
+        <v>0.01889401670755897</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>245.091805</v>
       </c>
       <c r="I13">
-        <v>0.1278076109685829</v>
+        <v>0.1956565424828327</v>
       </c>
       <c r="J13">
-        <v>0.1278076109685829</v>
+        <v>0.1956565424828327</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N13">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P13">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q13">
-        <v>6240.535980961061</v>
+        <v>8743.98082668479</v>
       </c>
       <c r="R13">
-        <v>56164.82382864955</v>
+        <v>78695.82744016312</v>
       </c>
       <c r="S13">
-        <v>0.0173212808610242</v>
+        <v>0.03161132179696284</v>
       </c>
       <c r="T13">
-        <v>0.0173212808610242</v>
+        <v>0.03161132179696285</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>269.5867006666667</v>
+        <v>110.607974</v>
       </c>
       <c r="H14">
-        <v>808.760102</v>
+        <v>331.823922</v>
       </c>
       <c r="I14">
-        <v>0.4217427689323495</v>
+        <v>0.2648947046255308</v>
       </c>
       <c r="J14">
-        <v>0.4217427689323495</v>
+        <v>0.2648947046255308</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N14">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P14">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q14">
-        <v>25556.7790547816</v>
+        <v>19561.5840076128</v>
       </c>
       <c r="R14">
-        <v>230011.0114930344</v>
+        <v>176054.2560685152</v>
       </c>
       <c r="S14">
-        <v>0.07093559740085646</v>
+        <v>0.07071922264923577</v>
       </c>
       <c r="T14">
-        <v>0.07093559740085646</v>
+        <v>0.07071922264923577</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>269.5867006666667</v>
+        <v>110.607974</v>
       </c>
       <c r="H15">
-        <v>808.760102</v>
+        <v>331.823922</v>
       </c>
       <c r="I15">
-        <v>0.4217427689323495</v>
+        <v>0.2648947046255308</v>
       </c>
       <c r="J15">
-        <v>0.4217427689323495</v>
+        <v>0.2648947046255308</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>436.924088</v>
       </c>
       <c r="O15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P15">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q15">
-        <v>39262.9744419041</v>
+        <v>16109.09605515924</v>
       </c>
       <c r="R15">
-        <v>353366.7699771369</v>
+        <v>144981.8644964331</v>
       </c>
       <c r="S15">
-        <v>0.1089786213591706</v>
+        <v>0.05823775570318739</v>
       </c>
       <c r="T15">
-        <v>0.1089786213591706</v>
+        <v>0.05823775570318739</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>269.5867006666667</v>
+        <v>110.607974</v>
       </c>
       <c r="H16">
-        <v>808.760102</v>
+        <v>331.823922</v>
       </c>
       <c r="I16">
-        <v>0.4217427689323495</v>
+        <v>0.2648947046255308</v>
       </c>
       <c r="J16">
-        <v>0.4217427689323495</v>
+        <v>0.2648947046255308</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N16">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P16">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q16">
-        <v>19619.43381984078</v>
+        <v>9293.847550920389</v>
       </c>
       <c r="R16">
-        <v>176574.904378567</v>
+        <v>83644.6279582835</v>
       </c>
       <c r="S16">
-        <v>0.05445585516444754</v>
+        <v>0.03359920515464439</v>
       </c>
       <c r="T16">
-        <v>0.05445585516444754</v>
+        <v>0.03359920515464439</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>269.5867006666667</v>
+        <v>110.607974</v>
       </c>
       <c r="H17">
-        <v>808.760102</v>
+        <v>331.823922</v>
       </c>
       <c r="I17">
-        <v>0.4217427689323495</v>
+        <v>0.2648947046255308</v>
       </c>
       <c r="J17">
-        <v>0.4217427689323495</v>
+        <v>0.2648947046255308</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N17">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P17">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q17">
-        <v>31227.8158531981</v>
+        <v>9393.799810790502</v>
       </c>
       <c r="R17">
-        <v>281050.3426787828</v>
+        <v>84544.19829711452</v>
       </c>
       <c r="S17">
-        <v>0.08667617184161916</v>
+        <v>0.03396055350543736</v>
       </c>
       <c r="T17">
-        <v>0.08667617184161916</v>
+        <v>0.03396055350543736</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>269.5867006666667</v>
+        <v>110.607974</v>
       </c>
       <c r="H18">
-        <v>808.760102</v>
+        <v>331.823922</v>
       </c>
       <c r="I18">
-        <v>0.4217427689323495</v>
+        <v>0.2648947046255308</v>
       </c>
       <c r="J18">
-        <v>0.4217427689323495</v>
+        <v>0.2648947046255308</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N18">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P18">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q18">
-        <v>15686.41061880746</v>
+        <v>7075.705322476052</v>
       </c>
       <c r="R18">
-        <v>141177.6955692671</v>
+        <v>63681.34790228447</v>
       </c>
       <c r="S18">
-        <v>0.04353932496482017</v>
+        <v>0.02558015648967026</v>
       </c>
       <c r="T18">
-        <v>0.04353932496482017</v>
+        <v>0.02558015648967026</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>269.5867006666667</v>
+        <v>110.607974</v>
       </c>
       <c r="H19">
-        <v>808.760102</v>
+        <v>331.823922</v>
       </c>
       <c r="I19">
-        <v>0.4217427689323495</v>
+        <v>0.2648947046255308</v>
       </c>
       <c r="J19">
-        <v>0.4217427689323495</v>
+        <v>0.2648947046255308</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N19">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P19">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q19">
-        <v>20592.6775744164</v>
+        <v>11838.26612155943</v>
       </c>
       <c r="R19">
-        <v>185334.0981697476</v>
+        <v>106544.3950940349</v>
       </c>
       <c r="S19">
-        <v>0.05715719820143551</v>
+        <v>0.04279781112335559</v>
       </c>
       <c r="T19">
-        <v>0.05715719820143551</v>
+        <v>0.04279781112335559</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.283952</v>
+        <v>10.10523266666667</v>
       </c>
       <c r="H20">
-        <v>33.851856</v>
+        <v>30.315698</v>
       </c>
       <c r="I20">
-        <v>0.01765267036248923</v>
+        <v>0.02420099135356128</v>
       </c>
       <c r="J20">
-        <v>0.01765267036248923</v>
+        <v>0.02420099135356128</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N20">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P20">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q20">
-        <v>1069.716968291152</v>
+        <v>1787.161906839313</v>
       </c>
       <c r="R20">
-        <v>9627.452714620367</v>
+        <v>16084.45716155382</v>
       </c>
       <c r="S20">
-        <v>0.00296911484944613</v>
+        <v>0.006460964549231599</v>
       </c>
       <c r="T20">
-        <v>0.002969114849446131</v>
+        <v>0.006460964549231599</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.283952</v>
+        <v>10.10523266666667</v>
       </c>
       <c r="H21">
-        <v>33.851856</v>
+        <v>30.315698</v>
       </c>
       <c r="I21">
-        <v>0.01765267036248923</v>
+        <v>0.02420099135356128</v>
       </c>
       <c r="J21">
-        <v>0.01765267036248923</v>
+        <v>0.02420099135356128</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>436.924088</v>
       </c>
       <c r="O21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P21">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q21">
-        <v>1643.410145545259</v>
+        <v>1471.739855637047</v>
       </c>
       <c r="R21">
-        <v>14790.69130990733</v>
+        <v>13245.65870073342</v>
       </c>
       <c r="S21">
-        <v>0.004561462154483442</v>
+        <v>0.00532064778046836</v>
       </c>
       <c r="T21">
-        <v>0.004561462154483443</v>
+        <v>0.00532064778046836</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.283952</v>
+        <v>10.10523266666667</v>
       </c>
       <c r="H22">
-        <v>33.851856</v>
+        <v>30.315698</v>
       </c>
       <c r="I22">
-        <v>0.01765267036248923</v>
+        <v>0.02420099135356128</v>
       </c>
       <c r="J22">
-        <v>0.01765267036248923</v>
+        <v>0.02420099135356128</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N22">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P22">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q22">
-        <v>821.2005597560747</v>
+        <v>849.0933200763689</v>
       </c>
       <c r="R22">
-        <v>7390.805037804672</v>
+        <v>7641.83988068732</v>
       </c>
       <c r="S22">
-        <v>0.002279330746936048</v>
+        <v>0.003069650163764391</v>
       </c>
       <c r="T22">
-        <v>0.002279330746936048</v>
+        <v>0.003069650163764391</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.283952</v>
+        <v>10.10523266666667</v>
       </c>
       <c r="H23">
-        <v>33.851856</v>
+        <v>30.315698</v>
       </c>
       <c r="I23">
-        <v>0.01765267036248923</v>
+        <v>0.02420099135356128</v>
       </c>
       <c r="J23">
-        <v>0.01765267036248923</v>
+        <v>0.02420099135356128</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N23">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P23">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q23">
-        <v>1307.086641443867</v>
+        <v>858.2250382068052</v>
       </c>
       <c r="R23">
-        <v>11763.7797729948</v>
+        <v>7724.025343861246</v>
       </c>
       <c r="S23">
-        <v>0.003627959985362565</v>
+        <v>0.00310266323711188</v>
       </c>
       <c r="T23">
-        <v>0.003627959985362565</v>
+        <v>0.00310266323711188</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.283952</v>
+        <v>10.10523266666667</v>
       </c>
       <c r="H24">
-        <v>33.851856</v>
+        <v>30.315698</v>
       </c>
       <c r="I24">
-        <v>0.01765267036248923</v>
+        <v>0.02420099135356128</v>
       </c>
       <c r="J24">
-        <v>0.01765267036248923</v>
+        <v>0.02420099135356128</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N24">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P24">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q24">
-        <v>656.5780286534718</v>
+        <v>646.4420780765064</v>
       </c>
       <c r="R24">
-        <v>5909.202257881248</v>
+        <v>5817.978702688558</v>
       </c>
       <c r="S24">
-        <v>0.001822403151937751</v>
+        <v>0.002337023486008894</v>
       </c>
       <c r="T24">
-        <v>0.001822403151937751</v>
+        <v>0.002337023486008894</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>11.283952</v>
+        <v>10.10523266666667</v>
       </c>
       <c r="H25">
-        <v>33.851856</v>
+        <v>30.315698</v>
       </c>
       <c r="I25">
-        <v>0.01765267036248923</v>
+        <v>0.02420099135356128</v>
       </c>
       <c r="J25">
-        <v>0.01765267036248923</v>
+        <v>0.02420099135356128</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N25">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P25">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q25">
-        <v>861.9371234803733</v>
+        <v>1081.553428763424</v>
       </c>
       <c r="R25">
-        <v>7757.43411132336</v>
+        <v>9733.980858870815</v>
       </c>
       <c r="S25">
-        <v>0.002392399474323294</v>
+        <v>0.003910042136976154</v>
       </c>
       <c r="T25">
-        <v>0.002392399474323295</v>
+        <v>0.003910042136976154</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>30.15805666666667</v>
+        <v>25.66752533333333</v>
       </c>
       <c r="H26">
-        <v>90.47417000000002</v>
+        <v>77.002576</v>
       </c>
       <c r="I26">
-        <v>0.04717941312670752</v>
+        <v>0.06147107930610555</v>
       </c>
       <c r="J26">
-        <v>0.04717941312670752</v>
+        <v>0.06147107930610556</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N26">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P26">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q26">
-        <v>2858.979278449557</v>
+        <v>4539.432691132466</v>
       </c>
       <c r="R26">
-        <v>25730.81350604601</v>
+        <v>40854.8942201922</v>
       </c>
       <c r="S26">
-        <v>0.007935405421738579</v>
+        <v>0.0164109997973826</v>
       </c>
       <c r="T26">
-        <v>0.007935405421738581</v>
+        <v>0.0164109997973826</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>30.15805666666667</v>
+        <v>25.66752533333333</v>
       </c>
       <c r="H27">
-        <v>90.47417000000002</v>
+        <v>77.002576</v>
       </c>
       <c r="I27">
-        <v>0.04717941312670752</v>
+        <v>0.06147107930610555</v>
       </c>
       <c r="J27">
-        <v>0.04717941312670752</v>
+        <v>0.06147107930610556</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>436.924088</v>
       </c>
       <c r="O27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P27">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q27">
-        <v>4392.260468311884</v>
+        <v>3738.253365827854</v>
       </c>
       <c r="R27">
-        <v>39530.34421480697</v>
+        <v>33644.28029245069</v>
       </c>
       <c r="S27">
-        <v>0.01219119277871504</v>
+        <v>0.01351456875856021</v>
       </c>
       <c r="T27">
-        <v>0.01219119277871504</v>
+        <v>0.01351456875856021</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>30.15805666666667</v>
+        <v>25.66752533333333</v>
       </c>
       <c r="H28">
-        <v>90.47417000000002</v>
+        <v>77.002576</v>
       </c>
       <c r="I28">
-        <v>0.04717941312670752</v>
+        <v>0.06147107930610555</v>
       </c>
       <c r="J28">
-        <v>0.04717941312670752</v>
+        <v>0.06147107930610556</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N28">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P28">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q28">
-        <v>2194.781847337005</v>
+        <v>2156.716725119538</v>
       </c>
       <c r="R28">
-        <v>19753.03662603304</v>
+        <v>19410.45052607584</v>
       </c>
       <c r="S28">
-        <v>0.006091853796273948</v>
+        <v>0.007796982607119255</v>
       </c>
       <c r="T28">
-        <v>0.006091853796273947</v>
+        <v>0.007796982607119256</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>30.15805666666667</v>
+        <v>25.66752533333333</v>
       </c>
       <c r="H29">
-        <v>90.47417000000002</v>
+        <v>77.002576</v>
       </c>
       <c r="I29">
-        <v>0.04717941312670752</v>
+        <v>0.06147107930610555</v>
       </c>
       <c r="J29">
-        <v>0.04717941312670752</v>
+        <v>0.06147107930610556</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N29">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P29">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q29">
-        <v>3493.385384917195</v>
+        <v>2179.911500953151</v>
       </c>
       <c r="R29">
-        <v>31440.46846425475</v>
+        <v>19619.20350857835</v>
       </c>
       <c r="S29">
-        <v>0.009696268011682736</v>
+        <v>0.007880836579059259</v>
       </c>
       <c r="T29">
-        <v>0.009696268011682736</v>
+        <v>0.007880836579059259</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>30.15805666666667</v>
+        <v>25.66752533333333</v>
       </c>
       <c r="H30">
-        <v>90.47417000000002</v>
+        <v>77.002576</v>
       </c>
       <c r="I30">
-        <v>0.04717941312670752</v>
+        <v>0.06147107930610555</v>
       </c>
       <c r="J30">
-        <v>0.04717941312670752</v>
+        <v>0.06147107930610556</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N30">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P30">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q30">
-        <v>1754.803405244873</v>
+        <v>1641.977870563433</v>
       </c>
       <c r="R30">
-        <v>15793.23064720386</v>
+        <v>14777.8008350709</v>
       </c>
       <c r="S30">
-        <v>0.004870646164185265</v>
+        <v>0.005936093854582693</v>
       </c>
       <c r="T30">
-        <v>0.004870646164185265</v>
+        <v>0.005936093854582693</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>30.15805666666667</v>
+        <v>25.66752533333333</v>
       </c>
       <c r="H31">
-        <v>90.47417000000002</v>
+        <v>77.002576</v>
       </c>
       <c r="I31">
-        <v>0.04717941312670752</v>
+        <v>0.06147107930610555</v>
       </c>
       <c r="J31">
-        <v>0.04717941312670752</v>
+        <v>0.06147107930610556</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N31">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P31">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q31">
-        <v>2303.656432872523</v>
+        <v>2747.170792386707</v>
       </c>
       <c r="R31">
-        <v>20732.90789585271</v>
+        <v>24724.53713148037</v>
       </c>
       <c r="S31">
-        <v>0.006394046954111951</v>
+        <v>0.009931597709401536</v>
       </c>
       <c r="T31">
-        <v>0.006394046954111951</v>
+        <v>0.009931597709401538</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>218.6560773333333</v>
+        <v>134.230812</v>
       </c>
       <c r="H32">
-        <v>655.9682319999999</v>
+        <v>402.692436</v>
       </c>
       <c r="I32">
-        <v>0.3420666496915519</v>
+        <v>0.3214689683800296</v>
       </c>
       <c r="J32">
-        <v>0.3420666496915519</v>
+        <v>0.3214689683800297</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>94.79985099999999</v>
+        <v>176.8550973333333</v>
       </c>
       <c r="N32">
-        <v>284.399553</v>
+        <v>530.565292</v>
       </c>
       <c r="O32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="P32">
-        <v>0.1681963571786456</v>
+        <v>0.2669710696905332</v>
       </c>
       <c r="Q32">
-        <v>20728.56355144447</v>
+        <v>23739.40332139236</v>
       </c>
       <c r="R32">
-        <v>186557.0719630003</v>
+        <v>213654.6298925313</v>
       </c>
       <c r="S32">
-        <v>0.05753436439042291</v>
+        <v>0.08582291436072871</v>
       </c>
       <c r="T32">
-        <v>0.05753436439042291</v>
+        <v>0.08582291436072872</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>218.6560773333333</v>
+        <v>134.230812</v>
       </c>
       <c r="H33">
-        <v>655.9682319999999</v>
+        <v>402.692436</v>
       </c>
       <c r="I33">
-        <v>0.3420666496915519</v>
+        <v>0.3214689683800296</v>
       </c>
       <c r="J33">
-        <v>0.3420666496915519</v>
+        <v>0.3214689683800297</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>436.924088</v>
       </c>
       <c r="O33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="P33">
-        <v>0.2584006873076977</v>
+        <v>0.2198524722701247</v>
       </c>
       <c r="Q33">
-        <v>31845.36905817471</v>
+        <v>19549.55837153315</v>
       </c>
       <c r="R33">
-        <v>286608.3215235724</v>
+        <v>175946.0253437984</v>
       </c>
       <c r="S33">
-        <v>0.08839025738533847</v>
+        <v>0.07067574745647608</v>
       </c>
       <c r="T33">
-        <v>0.08839025738533847</v>
+        <v>0.07067574745647609</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>218.6560773333333</v>
+        <v>134.230812</v>
       </c>
       <c r="H34">
-        <v>655.9682319999999</v>
+        <v>402.692436</v>
       </c>
       <c r="I34">
-        <v>0.3420666496915519</v>
+        <v>0.3214689683800296</v>
       </c>
       <c r="J34">
-        <v>0.3420666496915519</v>
+        <v>0.3214689683800297</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>72.77597066666667</v>
+        <v>84.02511333333334</v>
       </c>
       <c r="N34">
-        <v>218.327912</v>
+        <v>252.07534</v>
       </c>
       <c r="O34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="P34">
-        <v>0.1291210168281098</v>
+        <v>0.1268398520919549</v>
       </c>
       <c r="Q34">
-        <v>15912.90827009906</v>
+        <v>11278.75919112536</v>
       </c>
       <c r="R34">
-        <v>143216.1744308916</v>
+        <v>101508.8327201282</v>
       </c>
       <c r="S34">
-        <v>0.04416799363115803</v>
+        <v>0.04077507640147628</v>
       </c>
       <c r="T34">
-        <v>0.04416799363115802</v>
+        <v>0.04077507640147628</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>218.6560773333333</v>
+        <v>134.230812</v>
       </c>
       <c r="H35">
-        <v>655.9682319999999</v>
+        <v>402.692436</v>
       </c>
       <c r="I35">
-        <v>0.3420666496915519</v>
+        <v>0.3214689683800296</v>
       </c>
       <c r="J35">
-        <v>0.3420666496915519</v>
+        <v>0.3214689683800297</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>115.8358916666667</v>
+        <v>84.92877566666668</v>
       </c>
       <c r="N35">
-        <v>347.507675</v>
+        <v>254.786327</v>
       </c>
       <c r="O35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="P35">
-        <v>0.2055190467427377</v>
+        <v>0.1282039727953256</v>
       </c>
       <c r="Q35">
-        <v>25328.22168624229</v>
+        <v>11400.05851990251</v>
       </c>
       <c r="R35">
-        <v>227953.9951761806</v>
+        <v>102600.5266791226</v>
       </c>
       <c r="S35">
-        <v>0.07030121176708974</v>
+        <v>0.04121359887673471</v>
       </c>
       <c r="T35">
-        <v>0.07030121176708974</v>
+        <v>0.04121359887673472</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>218.6560773333333</v>
+        <v>134.230812</v>
       </c>
       <c r="H36">
-        <v>655.9682319999999</v>
+        <v>402.692436</v>
       </c>
       <c r="I36">
-        <v>0.3420666496915519</v>
+        <v>0.3214689683800296</v>
       </c>
       <c r="J36">
-        <v>0.3420666496915519</v>
+        <v>0.3214689683800297</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>58.18688599999999</v>
+        <v>63.97102366666667</v>
       </c>
       <c r="N36">
-        <v>174.560658</v>
+        <v>191.913071</v>
       </c>
       <c r="O36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="P36">
-        <v>0.10323668399826</v>
+        <v>0.09656726254996952</v>
       </c>
       <c r="Q36">
-        <v>12722.91624500185</v>
+        <v>8586.882451247884</v>
       </c>
       <c r="R36">
-        <v>114506.2462050166</v>
+        <v>77281.94206123095</v>
       </c>
       <c r="S36">
-        <v>0.03531382662055026</v>
+        <v>0.03104337827122217</v>
       </c>
       <c r="T36">
-        <v>0.03531382662055026</v>
+        <v>0.03104337827122218</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>218.6560773333333</v>
+        <v>134.230812</v>
       </c>
       <c r="H37">
-        <v>655.9682319999999</v>
+        <v>402.692436</v>
       </c>
       <c r="I37">
-        <v>0.3420666496915519</v>
+        <v>0.3214689683800296</v>
       </c>
       <c r="J37">
-        <v>0.3420666496915519</v>
+        <v>0.3214689683800297</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>76.38610333333334</v>
+        <v>107.0290476666667</v>
       </c>
       <c r="N37">
-        <v>229.15831</v>
+        <v>321.087143</v>
       </c>
       <c r="O37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="P37">
-        <v>0.1355262079445491</v>
+        <v>0.1615653706020921</v>
       </c>
       <c r="Q37">
-        <v>16702.28571764533</v>
+        <v>14366.59597588337</v>
       </c>
       <c r="R37">
-        <v>150320.5714588079</v>
+        <v>129299.3637829504</v>
       </c>
       <c r="S37">
-        <v>0.04635899589699249</v>
+        <v>0.05193825301339171</v>
       </c>
       <c r="T37">
-        <v>0.04635899589699249</v>
+        <v>0.05193825301339172</v>
       </c>
     </row>
   </sheetData>
